--- a/_Out/NFDataCfg/Excel/GM.xlsx
+++ b/_Out/NFDataCfg/Excel/GM.xlsx
@@ -1,15 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="27309"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="18528"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/James/Desktop/NoahGameFrame/_Out/NFDataCfg/Excel/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\James\Desktop\NoahGameFrame\_Out\NFDataCfg\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="27940" windowHeight="17540"/>
+    <workbookView xWindow="0" yWindow="458" windowWidth="27938" windowHeight="17543" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Property1" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="55">
   <si>
     <t>Id</t>
   </si>
@@ -70,13 +70,136 @@
   </si>
   <si>
     <t>1</t>
+  </si>
+  <si>
+    <t>test2</t>
+  </si>
+  <si>
+    <t>test3</t>
+  </si>
+  <si>
+    <t>test4</t>
+  </si>
+  <si>
+    <t>test5</t>
+  </si>
+  <si>
+    <t>test6</t>
+  </si>
+  <si>
+    <t>test7</t>
+  </si>
+  <si>
+    <t>test8</t>
+  </si>
+  <si>
+    <t>test9</t>
+  </si>
+  <si>
+    <t>test10</t>
+  </si>
+  <si>
+    <t>test11</t>
+  </si>
+  <si>
+    <t>test12</t>
+  </si>
+  <si>
+    <t>test13</t>
+  </si>
+  <si>
+    <t>test14</t>
+  </si>
+  <si>
+    <t>test15</t>
+  </si>
+  <si>
+    <t>test16</t>
+  </si>
+  <si>
+    <t>test17</t>
+  </si>
+  <si>
+    <t>test18</t>
+  </si>
+  <si>
+    <t>test19</t>
+  </si>
+  <si>
+    <t>test20</t>
+  </si>
+  <si>
+    <t>test21</t>
+  </si>
+  <si>
+    <t>test22</t>
+  </si>
+  <si>
+    <t>test23</t>
+  </si>
+  <si>
+    <t>test24</t>
+  </si>
+  <si>
+    <t>test25</t>
+  </si>
+  <si>
+    <t>test26</t>
+  </si>
+  <si>
+    <t>test27</t>
+  </si>
+  <si>
+    <t>test28</t>
+  </si>
+  <si>
+    <t>test29</t>
+  </si>
+  <si>
+    <t>test30</t>
+  </si>
+  <si>
+    <t>test31</t>
+  </si>
+  <si>
+    <t>test32</t>
+  </si>
+  <si>
+    <t>test33</t>
+  </si>
+  <si>
+    <t>test34</t>
+  </si>
+  <si>
+    <t>test35</t>
+  </si>
+  <si>
+    <t>test36</t>
+  </si>
+  <si>
+    <t>test37</t>
+  </si>
+  <si>
+    <t>test38</t>
+  </si>
+  <si>
+    <t>test39</t>
+  </si>
+  <si>
+    <t>test40</t>
+  </si>
+  <si>
+    <t>test41</t>
+  </si>
+  <si>
+    <t>test42</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="4" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="4">
     <font>
       <sz val="11"/>
       <color indexed="8"/>
@@ -643,22 +766,22 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B11"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:B52"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="10" topLeftCell="A11" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A12" sqref="A12"/>
+      <selection pane="bottomLeft" activeCell="B33" sqref="B33"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="14" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="1" width="12.6640625" style="6" customWidth="1"/>
-    <col min="2" max="2" width="10.5" style="6" customWidth="1"/>
+    <col min="2" max="2" width="10.46484375" style="6" customWidth="1"/>
     <col min="3" max="16384" width="9" style="6"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:2" s="1" customFormat="1">
       <c r="A1" s="7" t="s">
         <v>0</v>
       </c>
@@ -666,7 +789,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="2" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:2" s="2" customFormat="1">
       <c r="A2" s="9" t="s">
         <v>1</v>
       </c>
@@ -674,7 +797,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:2" s="3" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:2" s="3" customFormat="1">
       <c r="A3" s="9" t="s">
         <v>3</v>
       </c>
@@ -682,7 +805,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:2" s="3" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:2" s="3" customFormat="1">
       <c r="A4" s="9" t="s">
         <v>4</v>
       </c>
@@ -690,7 +813,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:2" s="3" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:2" s="3" customFormat="1">
       <c r="A5" s="9" t="s">
         <v>5</v>
       </c>
@@ -698,7 +821,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:2" s="3" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:2" s="3" customFormat="1">
       <c r="A6" s="9" t="s">
         <v>6</v>
       </c>
@@ -706,7 +829,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:2" s="4" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:2" s="4" customFormat="1">
       <c r="A7" s="11" t="s">
         <v>7</v>
       </c>
@@ -714,7 +837,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:2" s="4" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:2" s="4" customFormat="1">
       <c r="A8" s="11" t="s">
         <v>10</v>
       </c>
@@ -722,7 +845,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:2" s="4" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:2" s="4" customFormat="1">
       <c r="A9" s="11" t="s">
         <v>9</v>
       </c>
@@ -730,25 +853,353 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:2" s="5" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:2" s="5" customFormat="1">
       <c r="A10" s="12" t="s">
         <v>8</v>
       </c>
       <c r="B10" s="13"/>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:2">
       <c r="A11" s="14" t="s">
         <v>11</v>
       </c>
       <c r="B11" s="14" t="s">
         <v>13</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2">
+      <c r="A12" s="14" t="s">
+        <v>14</v>
+      </c>
+      <c r="B12" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2">
+      <c r="A13" s="14" t="s">
+        <v>15</v>
+      </c>
+      <c r="B13" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2">
+      <c r="A14" s="14" t="s">
+        <v>16</v>
+      </c>
+      <c r="B14" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2">
+      <c r="A15" s="14" t="s">
+        <v>17</v>
+      </c>
+      <c r="B15" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2">
+      <c r="A16" s="14" t="s">
+        <v>18</v>
+      </c>
+      <c r="B16" s="14" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2">
+      <c r="A17" s="14" t="s">
+        <v>19</v>
+      </c>
+      <c r="B17" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2">
+      <c r="A18" s="14" t="s">
+        <v>20</v>
+      </c>
+      <c r="B18" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2">
+      <c r="A19" s="14" t="s">
+        <v>21</v>
+      </c>
+      <c r="B19" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2">
+      <c r="A20" s="14" t="s">
+        <v>22</v>
+      </c>
+      <c r="B20" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2">
+      <c r="A21" s="14" t="s">
+        <v>23</v>
+      </c>
+      <c r="B21" s="14" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2">
+      <c r="A22" s="14" t="s">
+        <v>24</v>
+      </c>
+      <c r="B22" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2">
+      <c r="A23" s="14" t="s">
+        <v>25</v>
+      </c>
+      <c r="B23" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2">
+      <c r="A24" s="14" t="s">
+        <v>26</v>
+      </c>
+      <c r="B24" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2">
+      <c r="A25" s="14" t="s">
+        <v>27</v>
+      </c>
+      <c r="B25" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2">
+      <c r="A26" s="14" t="s">
+        <v>28</v>
+      </c>
+      <c r="B26" s="14" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2">
+      <c r="A27" s="14" t="s">
+        <v>29</v>
+      </c>
+      <c r="B27" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2">
+      <c r="A28" s="14" t="s">
+        <v>30</v>
+      </c>
+      <c r="B28" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2">
+      <c r="A29" s="14" t="s">
+        <v>31</v>
+      </c>
+      <c r="B29" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2">
+      <c r="A30" s="14" t="s">
+        <v>32</v>
+      </c>
+      <c r="B30" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2">
+      <c r="A31" s="14" t="s">
+        <v>33</v>
+      </c>
+      <c r="B31" s="14" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2">
+      <c r="A32" s="14" t="s">
+        <v>34</v>
+      </c>
+      <c r="B32" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2">
+      <c r="A33" s="14" t="s">
+        <v>35</v>
+      </c>
+      <c r="B33" s="14" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2">
+      <c r="A34" s="14" t="s">
+        <v>36</v>
+      </c>
+      <c r="B34" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2">
+      <c r="A35" s="14" t="s">
+        <v>37</v>
+      </c>
+      <c r="B35" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2">
+      <c r="A36" s="14" t="s">
+        <v>38</v>
+      </c>
+      <c r="B36" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2">
+      <c r="A37" s="14" t="s">
+        <v>39</v>
+      </c>
+      <c r="B37" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2">
+      <c r="A38" s="14" t="s">
+        <v>40</v>
+      </c>
+      <c r="B38" s="14" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2">
+      <c r="A39" s="14" t="s">
+        <v>41</v>
+      </c>
+      <c r="B39" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2">
+      <c r="A40" s="14" t="s">
+        <v>42</v>
+      </c>
+      <c r="B40" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2">
+      <c r="A41" s="14" t="s">
+        <v>43</v>
+      </c>
+      <c r="B41" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2">
+      <c r="A42" s="14" t="s">
+        <v>44</v>
+      </c>
+      <c r="B42" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2">
+      <c r="A43" s="14" t="s">
+        <v>45</v>
+      </c>
+      <c r="B43" s="14" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2">
+      <c r="A44" s="14" t="s">
+        <v>46</v>
+      </c>
+      <c r="B44" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2">
+      <c r="A45" s="14" t="s">
+        <v>47</v>
+      </c>
+      <c r="B45" s="14" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="46" spans="1:2">
+      <c r="A46" s="14" t="s">
+        <v>48</v>
+      </c>
+      <c r="B46" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="47" spans="1:2">
+      <c r="A47" s="14" t="s">
+        <v>49</v>
+      </c>
+      <c r="B47" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="48" spans="1:2">
+      <c r="A48" s="14" t="s">
+        <v>50</v>
+      </c>
+      <c r="B48" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="49" spans="1:2">
+      <c r="A49" s="14" t="s">
+        <v>51</v>
+      </c>
+      <c r="B49" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="50" spans="1:2">
+      <c r="A50" s="14" t="s">
+        <v>52</v>
+      </c>
+      <c r="B50" s="14" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="51" spans="1:2">
+      <c r="A51" s="14" t="s">
+        <v>53</v>
+      </c>
+      <c r="B51" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="52" spans="1:2">
+      <c r="A52" s="14" t="s">
+        <v>54</v>
+      </c>
+      <c r="B52" s="6">
+        <v>1</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>
   <dataValidations count="2">
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A6:A9"/>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B6 B7:C9">
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A6:A9" xr:uid="{00000000-0002-0000-0000-000000000000}"/>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B6 B7:C9" xr:uid="{00000000-0002-0000-0000-000001000000}">
       <formula1>"TRUE,FALSE"</formula1>
     </dataValidation>
   </dataValidations>
